--- a/products/education-careers/school-comparison-tool/Test Cases/Test Scripts/Sprint 40/5212_Test_Script.xlsx
+++ b/products/education-careers/school-comparison-tool/Test Cases/Test Scripts/Sprint 40/5212_Test_Script.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/michaeldelligatti/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2AE2923D-E9FF-FB40-9CB0-BF63B93817C7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC56D915-0817-3340-BFCB-D7AD7FC1A047}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="35780" yWindow="-5680" windowWidth="33600" windowHeight="18960" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="70">
   <si>
     <t>Test Step/Substep</t>
   </si>
@@ -248,6 +248,9 @@
   </si>
   <si>
     <t>File selection appears. Only .csv and .txt files can be selected</t>
+  </si>
+  <si>
+    <t>As Expected</t>
   </si>
 </sst>
 </file>
@@ -897,7 +900,7 @@
   <dimension ref="A1:L42"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1097,7 +1100,18 @@
       <c r="C14" s="17" t="s">
         <v>59</v>
       </c>
-      <c r="E14"/>
+      <c r="D14" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="E14" t="s">
+        <v>13</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="H14" s="2" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="15" spans="1:12" ht="51" x14ac:dyDescent="0.2">
       <c r="A15" s="21"/>
@@ -1107,7 +1121,18 @@
       <c r="C15" s="17" t="s">
         <v>66</v>
       </c>
-      <c r="E15"/>
+      <c r="D15" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="E15" t="s">
+        <v>13</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="H15" s="2" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="16" spans="1:12" ht="34" x14ac:dyDescent="0.2">
       <c r="A16" s="21"/>
@@ -1117,7 +1142,18 @@
       <c r="C16" s="17" t="s">
         <v>68</v>
       </c>
-      <c r="E16"/>
+      <c r="D16" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="E16" t="s">
+        <v>13</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="H16" s="2" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="17" spans="1:9" ht="34" x14ac:dyDescent="0.2">
       <c r="A17" s="21"/>
@@ -1127,7 +1163,18 @@
       <c r="C17" s="17" t="s">
         <v>61</v>
       </c>
-      <c r="E17"/>
+      <c r="D17" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="E17" t="s">
+        <v>13</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="H17" s="2" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="18" spans="1:9" ht="34" x14ac:dyDescent="0.2">
       <c r="A18" s="21"/>
@@ -1137,7 +1184,18 @@
       <c r="C18" s="17" t="s">
         <v>61</v>
       </c>
-      <c r="E18"/>
+      <c r="D18" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="E18" t="s">
+        <v>13</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="H18" s="2" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="19" spans="1:9" ht="34" x14ac:dyDescent="0.2">
       <c r="A19" s="21"/>
@@ -1147,7 +1205,18 @@
       <c r="C19" s="17" t="s">
         <v>61</v>
       </c>
-      <c r="E19"/>
+      <c r="D19" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="E19" t="s">
+        <v>13</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="H19" s="2" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="20" spans="1:9" ht="34" x14ac:dyDescent="0.2">
       <c r="B20" s="17" t="s">
@@ -1156,7 +1225,18 @@
       <c r="C20" s="17" t="s">
         <v>61</v>
       </c>
-      <c r="E20"/>
+      <c r="D20" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="E20" t="s">
+        <v>13</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="H20" s="2" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.2">
       <c r="E21"/>
@@ -1449,13 +1529,13 @@
           <x14:formula1>
             <xm:f>Sheet1!$B$1:$B$11</xm:f>
           </x14:formula1>
-          <xm:sqref>G14:G16</xm:sqref>
+          <xm:sqref>G14:G20</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{63EC037D-9E5C-A14C-BDE7-BF378454ED24}">
           <x14:formula1>
             <xm:f>Sheet1!$C$1:$C$5</xm:f>
           </x14:formula1>
-          <xm:sqref>H14:H16</xm:sqref>
+          <xm:sqref>H14:H20</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{74B58A7B-E8B0-EF4D-B916-1B10483A6791}">
           <x14:formula1>
